--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_3_4.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_3_4.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1762191.28425045</v>
+        <v>-1764141.51007901</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800619</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -668,7 +668,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>13.784170020795</v>
@@ -677,7 +677,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>72.88422534293467</v>
       </c>
       <c r="T2" t="n">
-        <v>1.690266451095255</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>75.76973182741521</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>161.1690841772622</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -829,10 +829,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>155.886038567534</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>72.59495661421201</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>71.30002018062869</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -908,13 +908,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>352.5788297294002</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,19 +944,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1060,13 +1060,13 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>17.69750843285647</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1114,10 +1114,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>179.5502959952859</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>2.608692535667753</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>200.6446893745993</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,16 +1178,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1288,19 +1288,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>115.9118647420299</v>
+        <v>68.49439899867225</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1336,16 +1336,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1370,7 +1370,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1421,7 +1421,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U11" t="n">
         <v>251.078595249801</v>
@@ -1528,25 +1528,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1582,16 +1582,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>39.11561436815803</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>80.49959427800766</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1616,7 +1616,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417105</v>
       </c>
       <c r="G14" t="n">
         <v>411.9645167896915</v>
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1667,7 +1667,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174121</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1768,16 +1768,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>17.52239120689694</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1813,25 +1813,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>283.6437369515749</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2005,7 +2005,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2053,7 +2053,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>58.47659984128715</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
@@ -2062,10 +2062,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>211.2541671901477</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2208,7 +2208,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T21" t="n">
         <v>192.9654699154601</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>123.402702684219</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2248,10 +2248,10 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2287,16 +2287,16 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750044</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>135.9622846212857</v>
       </c>
       <c r="C25" t="n">
-        <v>154.0677550156949</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C28" t="n">
-        <v>99.11493096898718</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D28" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E28" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F28" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G28" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H28" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789515</v>
       </c>
       <c r="I28" t="n">
-        <v>42.28735533463132</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S28" t="n">
-        <v>129.7889198539629</v>
+        <v>129.7889198539626</v>
       </c>
       <c r="T28" t="n">
         <v>153.4156709287486</v>
@@ -2770,16 +2770,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V28" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W28" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X28" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y28" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C31" t="n">
-        <v>99.11493096898718</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D31" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E31" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F31" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G31" t="n">
         <v>98.36167833373695</v>
       </c>
       <c r="H31" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I31" t="n">
-        <v>42.28735533463105</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3007,16 +3007,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V31" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W31" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X31" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y31" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3187,25 +3187,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D34" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463134</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3661,25 +3661,25 @@
         <v>111.7000900522967</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898722</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857175</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692856</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329064</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373698</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789552</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463139</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415219</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3806,7 +3806,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3898,25 +3898,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898714</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857166</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692848</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373689</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789543</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I43" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373696</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4192,16 +4192,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V46" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W46" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X46" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y46" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
   </sheetData>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1175.00952757579</v>
+        <v>924.4350995402963</v>
       </c>
       <c r="C2" t="n">
-        <v>806.0470106353782</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="D2" t="n">
-        <v>806.0470106353782</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="E2" t="n">
-        <v>806.0470106353782</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="F2" t="n">
-        <v>395.0611058457707</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4331,10 +4331,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2568.499971909388</v>
       </c>
       <c r="T2" t="n">
-        <v>2695.441751168631</v>
+        <v>2568.499971909388</v>
       </c>
       <c r="U2" t="n">
-        <v>2618.906668514676</v>
+        <v>2568.499971909388</v>
       </c>
       <c r="V2" t="n">
-        <v>2287.843781171106</v>
+        <v>2237.437084565817</v>
       </c>
       <c r="W2" t="n">
-        <v>1935.075125900991</v>
+        <v>2074.64002984131</v>
       </c>
       <c r="X2" t="n">
-        <v>1561.609367639912</v>
+        <v>1701.17427158023</v>
       </c>
       <c r="Y2" t="n">
-        <v>1561.609367639912</v>
+        <v>1311.034939604418</v>
       </c>
     </row>
     <row r="3">
@@ -4413,7 +4413,7 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
         <v>1194.968834417901</v>
@@ -4431,7 +4431,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>222.942782082032</v>
+        <v>211.4036268380756</v>
       </c>
       <c r="C4" t="n">
-        <v>222.942782082032</v>
+        <v>211.4036268380756</v>
       </c>
       <c r="D4" t="n">
-        <v>222.942782082032</v>
+        <v>211.4036268380756</v>
       </c>
       <c r="E4" t="n">
-        <v>222.942782082032</v>
+        <v>211.4036268380756</v>
       </c>
       <c r="F4" t="n">
-        <v>222.942782082032</v>
+        <v>211.4036268380756</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>211.4036268380756</v>
       </c>
       <c r="H4" t="n">
         <v>53.94298182036445</v>
@@ -4507,31 +4507,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>698.7120650600564</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="U4" t="n">
-        <v>698.7120650600564</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="V4" t="n">
-        <v>625.3838260558018</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="W4" t="n">
-        <v>625.3838260558018</v>
+        <v>211.4036268380756</v>
       </c>
       <c r="X4" t="n">
-        <v>625.3838260558018</v>
+        <v>211.4036268380756</v>
       </c>
       <c r="Y4" t="n">
-        <v>404.5912469122717</v>
+        <v>211.4036268380756</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>821.0691186598713</v>
+        <v>1108.378893121371</v>
       </c>
       <c r="C5" t="n">
-        <v>821.0691186598713</v>
+        <v>1108.378893121371</v>
       </c>
       <c r="D5" t="n">
-        <v>821.0691186598713</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E5" t="n">
-        <v>821.0691186598713</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F5" t="n">
-        <v>410.0832138702637</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4592,25 +4592,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2302.336936304455</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U5" t="n">
-        <v>2302.336936304455</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V5" t="n">
-        <v>1971.274048960885</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="W5" t="n">
-        <v>1971.274048960885</v>
+        <v>1871.983983358263</v>
       </c>
       <c r="X5" t="n">
-        <v>1597.808290699805</v>
+        <v>1498.518225097183</v>
       </c>
       <c r="Y5" t="n">
-        <v>1207.668958723993</v>
+        <v>1108.378893121371</v>
       </c>
     </row>
     <row r="6">
@@ -4644,16 +4644,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>546.4805193761945</v>
+        <v>257.3478788207</v>
       </c>
       <c r="C7" t="n">
-        <v>546.4805193761945</v>
+        <v>257.3478788207</v>
       </c>
       <c r="D7" t="n">
-        <v>546.4805193761945</v>
+        <v>257.3478788207</v>
       </c>
       <c r="E7" t="n">
-        <v>398.5674257938014</v>
+        <v>257.3478788207</v>
       </c>
       <c r="F7" t="n">
-        <v>398.5674257938014</v>
+        <v>257.3478788207</v>
       </c>
       <c r="G7" t="n">
-        <v>229.5676255321338</v>
+        <v>257.3478788207</v>
       </c>
       <c r="H7" t="n">
-        <v>71.81925296466392</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I7" t="n">
-        <v>71.81925296466392</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4762,13 +4762,13 @@
         <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>257.3478788207</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064342</v>
+        <v>257.3478788207</v>
       </c>
     </row>
     <row r="8">
@@ -4778,31 +4778,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1366.188433646014</v>
+        <v>604.6780100036603</v>
       </c>
       <c r="C8" t="n">
-        <v>1366.188433646014</v>
+        <v>604.6780100036603</v>
       </c>
       <c r="D8" t="n">
-        <v>1363.553390680693</v>
+        <v>604.6780100036603</v>
       </c>
       <c r="E8" t="n">
-        <v>1363.553390680693</v>
+        <v>402.0066065949742</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733127</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2423.485734520778</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U8" t="n">
-        <v>2423.485734520778</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V8" t="n">
-        <v>2092.422847177208</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W8" t="n">
-        <v>1739.654191907093</v>
+        <v>1364.743608328862</v>
       </c>
       <c r="X8" t="n">
-        <v>1366.188433646014</v>
+        <v>991.2778500677821</v>
       </c>
       <c r="Y8" t="n">
-        <v>1366.188433646014</v>
+        <v>991.2778500677821</v>
       </c>
     </row>
     <row r="9">
@@ -4857,19 +4857,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
         <v>221.4284102424006</v>
@@ -4893,31 +4893,31 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,16 +4936,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>171.0256734789805</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="C10" t="n">
-        <v>171.0256734789805</v>
+        <v>270.0191909330953</v>
       </c>
       <c r="D10" t="n">
-        <v>171.0256734789805</v>
+        <v>270.0191909330953</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>352.6741383092202</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>352.6741383092202</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V10" t="n">
-        <v>352.6741383092202</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W10" t="n">
-        <v>352.6741383092202</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="X10" t="n">
-        <v>352.6741383092202</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="Y10" t="n">
-        <v>352.6741383092202</v>
+        <v>438.9553738610022</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5039,10 +5039,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5075,16 +5075,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5118,25 +5118,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M12" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N12" t="n">
-        <v>1632.773754790662</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O12" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028584</v>
+        <v>973.0255547109412</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028584</v>
+        <v>804.0893717830343</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028584</v>
+        <v>653.9727323706985</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028584</v>
+        <v>506.0596387883054</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1164.055751909234</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U13" t="n">
-        <v>874.927113122792</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V13" t="n">
-        <v>835.416391538794</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="W13" t="n">
-        <v>545.9992215018333</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="X13" t="n">
-        <v>318.0096706038159</v>
+        <v>1193.818133854471</v>
       </c>
       <c r="Y13" t="n">
-        <v>97.21709146028584</v>
+        <v>973.0255547109412</v>
       </c>
     </row>
     <row r="14">
@@ -5255,10 +5255,10 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
@@ -5270,19 +5270,19 @@
         <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
@@ -5294,7 +5294,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5315,10 +5315,10 @@
         <v>3931.294970121729</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614724</v>
@@ -5355,25 +5355,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K15" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L15" t="n">
-        <v>940.1463453738959</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M15" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>599.9410747082369</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C16" t="n">
-        <v>431.00489178033</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>413.3055067228584</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
         <v>97.21709146028584</v>
@@ -5437,19 +5437,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5461,25 +5461,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U16" t="n">
-        <v>1298.996260473455</v>
+        <v>1209.78763177146</v>
       </c>
       <c r="V16" t="n">
-        <v>1298.996260473455</v>
+        <v>955.1031435655735</v>
       </c>
       <c r="W16" t="n">
-        <v>1009.579090436494</v>
+        <v>668.5943183619626</v>
       </c>
       <c r="X16" t="n">
-        <v>781.5895395384766</v>
+        <v>668.5943183619626</v>
       </c>
       <c r="Y16" t="n">
-        <v>781.5895395384766</v>
+        <v>447.8017392184324</v>
       </c>
     </row>
     <row r="17">
@@ -5492,31 +5492,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5546,16 +5546,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614724</v>
@@ -5595,22 +5595,22 @@
         <v>138.7081686256434</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277032</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341671</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M18" t="n">
-        <v>1302.911127126628</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N18" t="n">
-        <v>1632.773754790661</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O18" t="n">
-        <v>1912.313820009358</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,10 +5647,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
         <v>97.21709146028584</v>
@@ -5674,19 +5674,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
         <v>1460.082827585746</v>
@@ -5698,25 +5698,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473454</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1239.928987906498</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>950.8003491200559</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V19" t="n">
-        <v>696.115860914169</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W19" t="n">
-        <v>696.115860914169</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="X19" t="n">
-        <v>468.1263100161517</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y19" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5729,31 +5729,31 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805464</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795207</v>
@@ -5765,37 +5765,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5817,37 +5817,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I21" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>462.7283310300506</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L21" t="n">
-        <v>709.4934589365146</v>
+        <v>534.5429807341677</v>
       </c>
       <c r="M21" t="n">
-        <v>1016.813592216476</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N21" t="n">
-        <v>1346.676219880509</v>
+        <v>1843.901542059517</v>
       </c>
       <c r="O21" t="n">
-        <v>2016.139981183168</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
         <v>97.21709146028584</v>
@@ -5908,52 +5908,52 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1275.130855347408</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U22" t="n">
-        <v>1275.130855347408</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V22" t="n">
-        <v>1275.130855347408</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W22" t="n">
-        <v>985.7136853104473</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>757.72413441243</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
-        <v>536.9315552688998</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6054,13 +6054,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
@@ -6069,19 +6069,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>659.3731057211722</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1427.741252113634</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
-        <v>1833.271529962217</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>2112.811595180915</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
         <v>2317.834075963124</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>809.295358296326</v>
+        <v>434.3285960683721</v>
       </c>
       <c r="C25" t="n">
-        <v>653.6713633309776</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D25" t="n">
-        <v>503.5547239186418</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E25" t="n">
-        <v>355.6416303362487</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F25" t="n">
-        <v>208.7516828383384</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
         <v>97.21709146028584</v>
@@ -6151,10 +6151,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6163,34 +6163,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1387.841167119728</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U25" t="n">
-        <v>1098.712528333287</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V25" t="n">
-        <v>1098.712528333287</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="W25" t="n">
-        <v>809.295358296326</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="X25" t="n">
-        <v>809.295358296326</v>
+        <v>792.456816243504</v>
       </c>
       <c r="Y25" t="n">
-        <v>809.295358296326</v>
+        <v>571.6642370999739</v>
       </c>
     </row>
     <row r="26">
@@ -6203,49 +6203,49 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155887</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795205</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
@@ -6257,16 +6257,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6291,40 +6291,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7778528277034</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>534.5429807341675</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>841.8631140141292</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1646.27469227828</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>2315.73845358094</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2520.760934363149</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C28" t="n">
-        <v>559.3441472229673</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D28" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E28" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F28" t="n">
-        <v>320.8847398504513</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G28" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103126</v>
       </c>
       <c r="H28" t="n">
         <v>139.9315917982973</v>
@@ -6388,7 +6388,7 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L28" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M28" t="n">
         <v>1048.866260860496</v>
@@ -6403,7 +6403,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q28" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R28" t="n">
         <v>1996.265827986523</v>
@@ -6424,10 +6424,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X28" t="n">
-        <v>924.2611010045208</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y28" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823784</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K29" t="n">
-        <v>889.284191751408</v>
+        <v>889.284191751409</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6537,31 +6537,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>329.1202010073254</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>943.017270764214</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1711.385417156675</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>2041.248044820708</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>2320.788110039405</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2525.810590821615</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,34 +6595,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108315</v>
       </c>
       <c r="C31" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229656</v>
       </c>
       <c r="D31" t="n">
-        <v>478.0475988506723</v>
+        <v>478.047598850671</v>
       </c>
       <c r="E31" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083192</v>
       </c>
       <c r="F31" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504503</v>
       </c>
       <c r="G31" t="n">
-        <v>221.5295092103126</v>
+        <v>221.529509210312</v>
       </c>
       <c r="H31" t="n">
-        <v>139.931591798297</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K31" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L31" t="n">
         <v>709.8489468649691</v>
@@ -6646,25 +6646,25 @@
         <v>1996.265827986523</v>
       </c>
       <c r="S31" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942115</v>
       </c>
       <c r="T31" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771662</v>
       </c>
       <c r="U31" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025261</v>
       </c>
       <c r="V31" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859415</v>
       </c>
       <c r="W31" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862495</v>
       </c>
       <c r="X31" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045191</v>
       </c>
       <c r="Y31" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010301</v>
       </c>
     </row>
     <row r="32">
@@ -6692,37 +6692,37 @@
         <v>488.1932370805471</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823798</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6774,7 +6774,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
         <v>263.5382936126482</v>
@@ -6786,19 +6786,19 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1689.561836756086</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>2041.248044820708</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2320.788110039405</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2525.810590821615</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108324</v>
+        <v>659.4602391108336</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229667</v>
+        <v>559.3441472229679</v>
       </c>
       <c r="D34" t="n">
-        <v>478.047598850672</v>
+        <v>478.0475988506732</v>
       </c>
       <c r="E34" t="n">
-        <v>398.95459630832</v>
+        <v>398.9545963083212</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504507</v>
+        <v>320.8847398504519</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103124</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
@@ -6856,10 +6856,10 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>177.0503551525401</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
         <v>709.8489468649693</v>
@@ -6877,31 +6877,31 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R34" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T34" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W34" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.26110100452</v>
+        <v>924.2611010045213</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.288612901031</v>
+        <v>772.2886129010323</v>
       </c>
     </row>
     <row r="35">
@@ -6911,7 +6911,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
@@ -6920,34 +6920,34 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
@@ -6971,16 +6971,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7017,25 +7017,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>659.3731057211721</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1427.741252113633</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
-        <v>1757.603879777666</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2037.143944996363</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7072,34 +7072,34 @@
         <v>659.4602391108324</v>
       </c>
       <c r="C37" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229665</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506719</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083202</v>
+        <v>398.9545963083199</v>
       </c>
       <c r="F37" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504509</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103126</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982969</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525397</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254954</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649686</v>
+        <v>709.8489468649689</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7108,7 +7108,7 @@
         <v>1386.860941116387</v>
       </c>
       <c r="O37" t="n">
-        <v>1688.186490350128</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P37" t="n">
         <v>1932.236826184156</v>
@@ -7151,52 +7151,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7205,16 +7205,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7248,31 +7248,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>940.1463453738959</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,31 +7306,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108324</v>
       </c>
       <c r="C40" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229665</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506722</v>
+        <v>478.0475988506719</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083201</v>
+        <v>398.9545963083198</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504508</v>
+        <v>320.8847398504505</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103124</v>
+        <v>221.5295092103122</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982968</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K40" t="n">
         <v>394.6863306254957</v>
@@ -7354,7 +7354,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S40" t="n">
         <v>1865.165908942116</v>
@@ -7369,13 +7369,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W40" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045201</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010312</v>
+        <v>772.288612901031</v>
       </c>
     </row>
     <row r="41">
@@ -7421,16 +7421,16 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
@@ -7454,7 +7454,7 @@
         <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7488,25 +7488,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>796.3635653766202</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1396.107276203138</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
-        <v>1725.969903867171</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>2005.509969085868</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2525.810590821615</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
         <v>2612.943493278838</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108327</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229671</v>
+        <v>559.3441472229669</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506722</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
@@ -7567,19 +7567,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
         <v>394.6863306254955</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649691</v>
+        <v>709.848946864969</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
       </c>
       <c r="N43" t="n">
-        <v>1386.860941116388</v>
+        <v>1386.860941116387</v>
       </c>
       <c r="O43" t="n">
         <v>1688.186490350129</v>
@@ -7591,7 +7591,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S43" t="n">
         <v>1865.165908942116</v>
@@ -7609,10 +7609,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045208</v>
+        <v>924.2611010045204</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010313</v>
       </c>
     </row>
     <row r="44">
@@ -7640,19 +7640,19 @@
         <v>488.1932370805465</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
@@ -7728,22 +7728,22 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>659.3731057211721</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>966.6932390011339</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>1296.555866665167</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>1966.019627967826</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2486.320249703573</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108327</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229669</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506722</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083202</v>
+        <v>398.9545963083208</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504508</v>
+        <v>320.8847398504515</v>
       </c>
       <c r="G46" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7825,7 +7825,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R46" t="n">
         <v>1996.265827986523</v>
@@ -7840,16 +7840,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010313</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
   </sheetData>
@@ -8061,10 +8061,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>251.4045252050814</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516221</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8304,7 +8304,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>359.906554245176</v>
+        <v>435.923890002883</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8541,7 +8541,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,28 +8766,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>104.8749102765748</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>34.78428385445217</v>
@@ -9003,31 +9003,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>145.2351313103795</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>288.4091825776759</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9182,7 +9182,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599059</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9249,22 +9249,22 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>213.2603911806637</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9404,7 +9404,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6612145504513</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
         <v>449.5135334928325</v>
@@ -9480,28 +9480,28 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>176.7176547498459</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>213.2603911806616</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445213</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9717,22 +9717,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>76.43196988338445</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9878,7 +9878,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>417.6612145504486</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
         <v>449.5135334928325</v>
@@ -9951,10 +9951,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9963,19 +9963,19 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q27" t="n">
-        <v>15.83804904622774</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10188,16 +10188,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>41.75994765618395</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -10206,13 +10206,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720748</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10434,22 +10434,22 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>22.04402060665558</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10601,7 +10601,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714832</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
         <v>212.3149906599047</v>
@@ -10665,13 +10665,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -10680,13 +10680,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>297.2466435761034</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10823,7 +10823,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711659</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10899,31 +10899,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>145.2351313103795</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11066,7 +11066,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,7 +11136,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11145,7 +11145,7 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>295.3773510571275</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -11154,10 +11154,10 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11376,7 +11376,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11388,16 +11388,16 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
-        <v>50.62661940943602</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22553,7 +22553,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -22592,13 +22592,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>101.5314874660368</v>
       </c>
       <c r="T2" t="n">
-        <v>214.7580539065625</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -22708,10 +22708,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -22720,10 +22720,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0.2848502742611458</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>45.19995918853699</v>
@@ -22762,13 +22762,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>179.542686709616</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -23258,7 +23258,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
@@ -23470,16 +23470,16 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>213.02202895567</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>145.2100611110295</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23656,16 +23656,16 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>131.0930818113154</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
@@ -23701,25 +23701,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>2.87926138501615</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23893,7 +23893,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23941,7 +23941,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>163.0709612171021</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23950,10 +23950,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>75.26883114644332</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>56.42927749771833</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24136,10 +24136,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24175,16 +24175,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>82.3938331833848</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24361,28 +24361,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>43.86969556065156</v>
       </c>
       <c r="C25" t="n">
-        <v>13.17906608293293</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,28 +24409,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1311782.711030735</v>
+        <v>1311782.711030734</v>
       </c>
     </row>
     <row r="8">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>77466.06243016738</v>
+        <v>77466.06243016744</v>
       </c>
       <c r="C2" t="n">
+        <v>82104.17698642831</v>
+      </c>
+      <c r="D2" t="n">
+        <v>82104.17698642834</v>
+      </c>
+      <c r="E2" t="n">
+        <v>78205.81194754172</v>
+      </c>
+      <c r="F2" t="n">
+        <v>78205.81194754175</v>
+      </c>
+      <c r="G2" t="n">
+        <v>78205.81194754175</v>
+      </c>
+      <c r="H2" t="n">
+        <v>78205.81194754178</v>
+      </c>
+      <c r="I2" t="n">
+        <v>78205.81194754178</v>
+      </c>
+      <c r="J2" t="n">
+        <v>82104.17698642849</v>
+      </c>
+      <c r="K2" t="n">
+        <v>82104.17698642836</v>
+      </c>
+      <c r="L2" t="n">
+        <v>82104.17698642839</v>
+      </c>
+      <c r="M2" t="n">
+        <v>82104.17698642839</v>
+      </c>
+      <c r="N2" t="n">
+        <v>82104.17698642839</v>
+      </c>
+      <c r="O2" t="n">
         <v>82104.17698642833</v>
       </c>
-      <c r="D2" t="n">
-        <v>82104.17698642831</v>
-      </c>
-      <c r="E2" t="n">
-        <v>78205.81194754178</v>
-      </c>
-      <c r="F2" t="n">
-        <v>78205.81194754172</v>
-      </c>
-      <c r="G2" t="n">
-        <v>78205.81194754176</v>
-      </c>
-      <c r="H2" t="n">
-        <v>78205.81194754173</v>
-      </c>
-      <c r="I2" t="n">
-        <v>78205.81194754179</v>
-      </c>
-      <c r="J2" t="n">
-        <v>82104.17698642847</v>
-      </c>
-      <c r="K2" t="n">
-        <v>82104.1769864285</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="P2" t="n">
         <v>82104.17698642837</v>
-      </c>
-      <c r="M2" t="n">
-        <v>82104.1769864283</v>
-      </c>
-      <c r="N2" t="n">
-        <v>82104.17698642836</v>
-      </c>
-      <c r="O2" t="n">
-        <v>82104.1769864283</v>
-      </c>
-      <c r="P2" t="n">
-        <v>82104.1769864284</v>
       </c>
     </row>
     <row r="3">
@@ -26381,28 +26381,28 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>230928.7312963055</v>
+        <v>230928.7312963054</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-11</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>54505.51210371259</v>
+        <v>54505.51210371252</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26430,16 +26430,16 @@
         <v>22174.60758687075</v>
       </c>
       <c r="G4" t="n">
-        <v>22174.60758687072</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="H4" t="n">
-        <v>22174.60758687077</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="I4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="J4" t="n">
-        <v>44593.39482819117</v>
+        <v>44593.39482819119</v>
       </c>
       <c r="K4" t="n">
         <v>44593.39482819119</v>
@@ -26448,16 +26448,16 @@
         <v>44593.39482819119</v>
       </c>
       <c r="M4" t="n">
-        <v>44593.39482819121</v>
+        <v>44593.39482819119</v>
       </c>
       <c r="N4" t="n">
-        <v>44593.39482819117</v>
+        <v>44593.39482819119</v>
       </c>
       <c r="O4" t="n">
-        <v>44593.39482819123</v>
+        <v>44593.39482819122</v>
       </c>
       <c r="P4" t="n">
-        <v>44593.39482819118</v>
+        <v>44593.3948281912</v>
       </c>
     </row>
     <row r="5">
@@ -26485,7 +26485,7 @@
         <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871664</v>
@@ -26494,16 +26494,16 @@
         <v>97715.10582002539</v>
       </c>
       <c r="K5" t="n">
+        <v>97715.1058200254</v>
+      </c>
+      <c r="L5" t="n">
         <v>97715.10582002539</v>
-      </c>
-      <c r="L5" t="n">
-        <v>97715.1058200254</v>
       </c>
       <c r="M5" t="n">
         <v>97715.10582002539</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.10582002538</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="O5" t="n">
         <v>97715.10582002539</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-734520.9318200386</v>
+        <v>-734636.884683945</v>
       </c>
       <c r="C6" t="n">
+        <v>-166387.7688635056</v>
+      </c>
+      <c r="D6" t="n">
         <v>-166387.7688635055</v>
       </c>
-      <c r="D6" t="n">
-        <v>-166387.7688635056</v>
-      </c>
       <c r="E6" t="n">
-        <v>-561116.1580649418</v>
+        <v>-561213.6171909139</v>
       </c>
       <c r="F6" t="n">
-        <v>-35956.12158804565</v>
+        <v>-36053.58071401779</v>
       </c>
       <c r="G6" t="n">
-        <v>-35956.12158804558</v>
+        <v>-36053.58071401775</v>
       </c>
       <c r="H6" t="n">
-        <v>-35956.12158804566</v>
+        <v>-36053.58071401776</v>
       </c>
       <c r="I6" t="n">
-        <v>-35956.12158804556</v>
+        <v>-36053.58071401773</v>
       </c>
       <c r="J6" t="n">
-        <v>-291133.0549580936</v>
+        <v>-291133.0549580935</v>
       </c>
       <c r="K6" t="n">
-        <v>-60204.32366178808</v>
+        <v>-60204.32366178824</v>
       </c>
       <c r="L6" t="n">
         <v>-60204.32366178823</v>
       </c>
       <c r="M6" t="n">
-        <v>-195005.3388956254</v>
+        <v>-195005.3388956253</v>
       </c>
       <c r="N6" t="n">
-        <v>-60204.32366178819</v>
+        <v>-60204.32366178821</v>
       </c>
       <c r="O6" t="n">
-        <v>-114709.8357655009</v>
+        <v>-114709.8357655008</v>
       </c>
       <c r="P6" t="n">
-        <v>-60204.32366178813</v>
+        <v>-60204.32366178822</v>
       </c>
     </row>
   </sheetData>
@@ -26701,31 +26701,31 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="J2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M2" t="n">
         <v>68.13189012964065</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="3">
@@ -26741,31 +26741,31 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
+        <v>830.3824054541001</v>
+      </c>
+      <c r="G3" t="n">
         <v>830.3824054541002</v>
       </c>
-      <c r="G3" t="n">
-        <v>830.3824054541001</v>
-      </c>
       <c r="H3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541006</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
         <v>830.3824054541002</v>
@@ -26777,7 +26777,7 @@
         <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26923,28 +26923,28 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>68.13189012964061</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>4.263256414560601e-14</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>68.13189012964065</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>68.13189012964074</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27160,13 +27160,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27385,10 +27385,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27397,7 +27397,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,25 +27427,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>175.4544356808741</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>188.0718845401508</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,28 +27534,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27579,7 +27579,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801578</v>
@@ -27588,22 +27588,22 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,13 +27613,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>283.3830214400543</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27628,13 +27628,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>61.20534029139475</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,22 +27661,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27780,22 +27780,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>27.50245075568053</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,7 +27816,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27834,10 +27834,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>46.15935939375129</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>352.0743490850152</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>181.2856806976625</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,16 +27898,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -28008,19 +28008,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>30.52209790453928</v>
+        <v>77.93956364789692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,16 +28056,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28336,7 +28336,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -28387,7 +28387,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -28798,7 +28798,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="29">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="35">
@@ -30034,7 +30034,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="41">
@@ -30457,7 +30457,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -30526,7 +30526,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
   </sheetData>
@@ -31276,13 +31276,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31300,22 +31300,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31388,16 +31388,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,13 +31458,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31473,7 +31473,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31996,40 +31996,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M14" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32069,10 +32069,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J15" t="n">
         <v>168.7478056215733</v>
@@ -32081,7 +32081,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M15" t="n">
         <v>452.5584109724845</v>
@@ -32090,10 +32090,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q15" t="n">
         <v>227.9948068710956</v>
@@ -32105,7 +32105,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32151,7 +32151,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32169,7 +32169,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
@@ -32181,10 +32181,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U16" t="n">
         <v>0.08167695791351813</v>
@@ -32233,40 +32233,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32306,10 +32306,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215733</v>
@@ -32318,7 +32318,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
         <v>452.5584109724845</v>
@@ -32327,10 +32327,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
         <v>227.9948068710956</v>
@@ -32342,7 +32342,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32388,7 +32388,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32406,7 +32406,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
@@ -32418,10 +32418,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
         <v>0.08167695791351813</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041487</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304439</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565521</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104652</v>
       </c>
       <c r="T20" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127067</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813464</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855528</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677466</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361493</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298629</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P22" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337673</v>
       </c>
       <c r="S22" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351819</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,46 +32777,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32862,7 +32862,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32874,10 +32874,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32886,19 +32886,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32938,7 +32938,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
         <v>128.6967545176652</v>
@@ -32947,31 +32947,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33020,31 +33020,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
@@ -33099,7 +33099,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33111,7 +33111,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
         <v>229.1447054263751</v>
@@ -33123,19 +33123,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33172,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33190,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33199,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33208,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33251,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,7 +33260,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33269,10 +33269,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33287,10 +33287,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33351,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33363,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33497,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33506,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33524,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -34357,16 +34357,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34375,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34384,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34393,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34436,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34445,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,10 +34454,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34472,10 +34472,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34536,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34548,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34781,10 +34781,10 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>289.2671274730079</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262938</v>
+        <v>410.005506727916</v>
       </c>
       <c r="N3" t="n">
         <v>559.3197334338903</v>
@@ -34948,10 +34948,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,10 +35024,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355128</v>
+        <v>515.9012490932197</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,16 +35261,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N12" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>387.238612517683</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M14" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>394.4928362664038</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O15" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092005</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299105</v>
@@ -35811,7 +35811,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N16" t="n">
         <v>273.2768778056036</v>
@@ -35823,7 +35823,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.499584150206</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490663</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K18" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>776.129440800466</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980127</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O18" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>420.3538061121883</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299105</v>
@@ -36048,7 +36048,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
         <v>273.2768778056036</v>
@@ -36060,7 +36060,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L20" t="n">
-        <v>708.691066710908</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221119</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502047</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349819</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490663</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K21" t="n">
-        <v>327.2930933377851</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560245</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504661</v>
+        <v>776.1294408004665</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980127</v>
+        <v>546.4549645786747</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507407</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187472</v>
+        <v>39.2256999718748</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,28 +36358,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,28 +36437,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>409.6265432813974</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315248</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686866</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36598,25 +36598,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109055</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415666</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178378</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315248</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q27" t="n">
-        <v>103.8510818313019</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K28" t="n">
         <v>219.8343186595512</v>
@@ -36765,10 +36765,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O28" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P28" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q28" t="n">
         <v>107.3575901015154</v>
@@ -36832,13 +36832,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>192.3353862441232</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37066,16 +37066,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.378021941509</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37154,22 +37154,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>355.2385940046684</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,10 +37224,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K34" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L34" t="n">
         <v>318.3460770095692</v>
@@ -37236,13 +37236,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37321,7 +37321,7 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109128</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
         <v>350.4995841502048</v>
@@ -37385,13 +37385,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
         <v>333.1945733980128</v>
@@ -37400,13 +37400,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>504.340058507628</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37543,7 +37543,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303341</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>394.4928362664038</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
         <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,13 +37698,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520613</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
       </c>
       <c r="L40" t="n">
-        <v>318.3460770095691</v>
+        <v>318.3460770095692</v>
       </c>
       <c r="M40" t="n">
         <v>342.4417313086132</v>
@@ -37716,7 +37716,7 @@
         <v>304.3692416502435</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414413</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37786,7 +37786,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
         <v>415.0406756005178</v>
@@ -37865,7 +37865,7 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>605.8017281075937</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
         <v>333.1945733980128</v>
@@ -37874,10 +37874,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714618</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
         <v>10.73738595686864</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520621</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37953,7 +37953,7 @@
         <v>304.3692416502435</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q43" t="n">
         <v>107.3575901015154</v>
@@ -38017,13 +38017,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,25 +38096,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
-        <v>138.6396521945101</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520617</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
